--- a/Blik/grondslagen.xlsx
+++ b/Blik/grondslagen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="315" windowWidth="15300" windowHeight="7710"/>
+    <workbookView xWindow="195" yWindow="375" windowWidth="15300" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Wetsartikelen" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4336" uniqueCount="2215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4337" uniqueCount="2217">
   <si>
     <t>Wet handhaving consumentenbescherming</t>
   </si>
@@ -6445,9 +6445,6 @@
     <t>Criteria voor acceptatie van kwaliteitssystemen door de NVWA</t>
   </si>
   <si>
-    <t>EKS</t>
-  </si>
-  <si>
     <t>https://www.nvwa.nl/txmpub/files/?p_file_id=2207033</t>
   </si>
   <si>
@@ -6695,6 +6692,15 @@
   </si>
   <si>
     <t>602</t>
+  </si>
+  <si>
+    <t>Procesflow</t>
+  </si>
+  <si>
+    <t>procesflow</t>
+  </si>
+  <si>
+    <t>PF.15</t>
   </si>
 </sst>
 </file>
@@ -7120,10 +7126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J580"/>
+  <dimension ref="A1:I580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A557" workbookViewId="0">
-      <selection activeCell="D572" sqref="D572"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7134,7 +7140,7 @@
     <col min="4" max="4" width="88.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1785</v>
       </c>
@@ -7148,7 +7154,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1784</v>
       </c>
@@ -7161,9 +7167,9 @@
       <c r="D2" t="s">
         <v>226</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -7177,7 +7183,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -7190,9 +7196,9 @@
       <c r="D4" t="s">
         <v>593</v>
       </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -7206,7 +7212,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -7220,7 +7226,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -7234,7 +7240,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -7247,9 +7253,9 @@
       <c r="D8" t="s">
         <v>597</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -7263,7 +7269,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -7276,9 +7282,9 @@
       <c r="D10" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -7292,7 +7298,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -7305,9 +7311,9 @@
       <c r="D12" t="s">
         <v>601</v>
       </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -7321,7 +7327,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -7334,9 +7340,9 @@
       <c r="D14" t="s">
         <v>603</v>
       </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -7350,7 +7356,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -7364,7 +7370,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -7377,9 +7383,9 @@
       <c r="D17" t="s">
         <v>606</v>
       </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -7392,9 +7398,9 @@
       <c r="D18" t="s">
         <v>607</v>
       </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -7408,7 +7414,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -7421,9 +7427,9 @@
       <c r="D20" t="s">
         <v>609</v>
       </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -7436,9 +7442,9 @@
       <c r="D21" t="s">
         <v>610</v>
       </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -7452,7 +7458,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -7466,7 +7472,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -7480,7 +7486,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -7493,9 +7499,9 @@
       <c r="D25" t="s">
         <v>614</v>
       </c>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -7508,9 +7514,9 @@
       <c r="D26" t="s">
         <v>615</v>
       </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -7524,7 +7530,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -7537,9 +7543,9 @@
       <c r="D28" t="s">
         <v>617</v>
       </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -7553,7 +7559,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -7567,7 +7573,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -7581,7 +7587,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -7594,9 +7600,9 @@
       <c r="D32" t="s">
         <v>621</v>
       </c>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -7610,7 +7616,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -7623,9 +7629,9 @@
       <c r="D34" t="s">
         <v>623</v>
       </c>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -7639,7 +7645,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -7653,7 +7659,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -7667,7 +7673,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -7681,7 +7687,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -7695,7 +7701,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -7709,7 +7715,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -7723,7 +7729,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -7737,7 +7743,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -7751,7 +7757,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -7765,7 +7771,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -7779,7 +7785,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -7793,7 +7799,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -7807,7 +7813,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -7821,7 +7827,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -7835,7 +7841,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -7849,7 +7855,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -7863,7 +7869,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -7877,7 +7883,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -7890,9 +7896,9 @@
       <c r="D53" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -7906,7 +7912,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -7919,9 +7925,9 @@
       <c r="D55" t="s">
         <v>644</v>
       </c>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>54</v>
       </c>
@@ -7935,7 +7941,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>55</v>
       </c>
@@ -7949,7 +7955,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -7963,7 +7969,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>57</v>
       </c>
@@ -7976,9 +7982,9 @@
       <c r="D59" t="s">
         <v>648</v>
       </c>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>58</v>
       </c>
@@ -7992,7 +7998,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>59</v>
       </c>
@@ -8006,7 +8012,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>60</v>
       </c>
@@ -8020,7 +8026,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>61</v>
       </c>
@@ -8033,9 +8039,9 @@
       <c r="D63" t="s">
         <v>652</v>
       </c>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>62</v>
       </c>
@@ -8049,7 +8055,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>63</v>
       </c>
@@ -8063,7 +8069,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>64</v>
       </c>
@@ -8077,7 +8083,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>65</v>
       </c>
@@ -8091,7 +8097,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>66</v>
       </c>
@@ -8105,7 +8111,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>67</v>
       </c>
@@ -8119,7 +8125,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>68</v>
       </c>
@@ -8132,9 +8138,9 @@
       <c r="D70" t="s">
         <v>659</v>
       </c>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>69</v>
       </c>
@@ -8147,9 +8153,9 @@
       <c r="D71" t="s">
         <v>660</v>
       </c>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>70</v>
       </c>
@@ -8163,7 +8169,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>71</v>
       </c>
@@ -8177,7 +8183,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>72</v>
       </c>
@@ -8191,7 +8197,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>73</v>
       </c>
@@ -8205,7 +8211,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>74</v>
       </c>
@@ -8218,9 +8224,9 @@
       <c r="D76" t="s">
         <v>665</v>
       </c>
-      <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>75</v>
       </c>
@@ -8234,7 +8240,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>76</v>
       </c>
@@ -8247,9 +8253,9 @@
       <c r="D78" t="s">
         <v>667</v>
       </c>
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>77</v>
       </c>
@@ -8262,9 +8268,9 @@
       <c r="D79" t="s">
         <v>668</v>
       </c>
-      <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>78</v>
       </c>
@@ -8278,7 +8284,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>79</v>
       </c>
@@ -8292,7 +8298,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>80</v>
       </c>
@@ -8306,7 +8312,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>81</v>
       </c>
@@ -8320,7 +8326,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>82</v>
       </c>
@@ -8333,9 +8339,9 @@
       <c r="D84" t="s">
         <v>673</v>
       </c>
-      <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>83</v>
       </c>
@@ -8349,7 +8355,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>84</v>
       </c>
@@ -8363,7 +8369,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>85</v>
       </c>
@@ -8377,7 +8383,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>86</v>
       </c>
@@ -8391,7 +8397,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>87</v>
       </c>
@@ -8405,7 +8411,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>88</v>
       </c>
@@ -8419,7 +8425,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>89</v>
       </c>
@@ -8432,9 +8438,9 @@
       <c r="D91" t="s">
         <v>680</v>
       </c>
-      <c r="J91" s="1"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>90</v>
       </c>
@@ -8448,7 +8454,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>91</v>
       </c>
@@ -8462,7 +8468,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>92</v>
       </c>
@@ -8476,7 +8482,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>93</v>
       </c>
@@ -8489,9 +8495,9 @@
       <c r="D95" t="s">
         <v>684</v>
       </c>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>94</v>
       </c>
@@ -8505,7 +8511,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>95</v>
       </c>
@@ -8519,7 +8525,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>96</v>
       </c>
@@ -8532,9 +8538,9 @@
       <c r="D98" t="s">
         <v>687</v>
       </c>
-      <c r="J98" s="1"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>97</v>
       </c>
@@ -8548,7 +8554,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>98</v>
       </c>
@@ -8561,9 +8567,9 @@
       <c r="D100" t="s">
         <v>689</v>
       </c>
-      <c r="J100" s="1"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>99</v>
       </c>
@@ -8577,7 +8583,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>100</v>
       </c>
@@ -8590,9 +8596,9 @@
       <c r="D102" t="s">
         <v>691</v>
       </c>
-      <c r="J102" s="1"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>101</v>
       </c>
@@ -8606,7 +8612,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>102</v>
       </c>
@@ -8620,7 +8626,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>103</v>
       </c>
@@ -8633,9 +8639,9 @@
       <c r="D105" t="s">
         <v>694</v>
       </c>
-      <c r="J105" s="1"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>104</v>
       </c>
@@ -8648,9 +8654,9 @@
       <c r="D106" t="s">
         <v>695</v>
       </c>
-      <c r="J106" s="1"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>105</v>
       </c>
@@ -8664,7 +8670,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>106</v>
       </c>
@@ -8678,7 +8684,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>107</v>
       </c>
@@ -8692,7 +8698,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>108</v>
       </c>
@@ -8706,7 +8712,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>109</v>
       </c>
@@ -8720,7 +8726,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>110</v>
       </c>
@@ -8734,7 +8740,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>111</v>
       </c>
@@ -8748,7 +8754,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>112</v>
       </c>
@@ -8762,7 +8768,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>113</v>
       </c>
@@ -8776,7 +8782,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>114</v>
       </c>
@@ -8790,7 +8796,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>115</v>
       </c>
@@ -8804,7 +8810,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>116</v>
       </c>
@@ -8818,7 +8824,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>117</v>
       </c>
@@ -8831,9 +8837,9 @@
       <c r="D119" t="s">
         <v>708</v>
       </c>
-      <c r="J119" s="1"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>118</v>
       </c>
@@ -8846,9 +8852,9 @@
       <c r="D120" t="s">
         <v>709</v>
       </c>
-      <c r="J120" s="1"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>119</v>
       </c>
@@ -8862,7 +8868,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>120</v>
       </c>
@@ -8876,7 +8882,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>121</v>
       </c>
@@ -8890,7 +8896,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>122</v>
       </c>
@@ -8903,9 +8909,9 @@
       <c r="D124" t="s">
         <v>713</v>
       </c>
-      <c r="J124" s="1"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>123</v>
       </c>
@@ -8918,9 +8924,9 @@
       <c r="D125" t="s">
         <v>714</v>
       </c>
-      <c r="J125" s="1"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>124</v>
       </c>
@@ -8934,7 +8940,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>125</v>
       </c>
@@ -8947,9 +8953,9 @@
       <c r="D127" t="s">
         <v>716</v>
       </c>
-      <c r="J127" s="1"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>126</v>
       </c>
@@ -8963,7 +8969,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>127</v>
       </c>
@@ -8977,7 +8983,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>128</v>
       </c>
@@ -8991,7 +8997,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>129</v>
       </c>
@@ -9005,7 +9011,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>130</v>
       </c>
@@ -9019,7 +9025,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>131</v>
       </c>
@@ -9033,7 +9039,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>132</v>
       </c>
@@ -9047,7 +9053,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>133</v>
       </c>
@@ -9061,7 +9067,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>134</v>
       </c>
@@ -9075,7 +9081,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>135</v>
       </c>
@@ -9089,7 +9095,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>136</v>
       </c>
@@ -9103,7 +9109,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>137</v>
       </c>
@@ -9117,7 +9123,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>138</v>
       </c>
@@ -9130,9 +9136,9 @@
       <c r="D140" t="s">
         <v>729</v>
       </c>
-      <c r="J140" s="1"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>139</v>
       </c>
@@ -9146,7 +9152,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>140</v>
       </c>
@@ -9160,7 +9166,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>141</v>
       </c>
@@ -9174,7 +9180,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>142</v>
       </c>
@@ -9187,9 +9193,9 @@
       <c r="D144" t="s">
         <v>368</v>
       </c>
-      <c r="J144" s="1"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I144" s="1"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>143</v>
       </c>
@@ -9203,7 +9209,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>144</v>
       </c>
@@ -9217,7 +9223,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>145</v>
       </c>
@@ -9230,9 +9236,9 @@
       <c r="D147" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="J147" s="1"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>146</v>
       </c>
@@ -9246,7 +9252,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>147</v>
       </c>
@@ -9259,9 +9265,9 @@
       <c r="D149" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="J149" s="1"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>148</v>
       </c>
@@ -9275,7 +9281,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>149</v>
       </c>
@@ -9288,9 +9294,9 @@
       <c r="D151" t="s">
         <v>481</v>
       </c>
-      <c r="J151" s="1"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>150</v>
       </c>
@@ -9304,7 +9310,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>151</v>
       </c>
@@ -9317,9 +9323,9 @@
       <c r="D153" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="J153" s="1"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>152</v>
       </c>
@@ -9333,7 +9339,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>153</v>
       </c>
@@ -9346,9 +9352,9 @@
       <c r="D155" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="J155" s="1"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I155" s="1"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>154</v>
       </c>
@@ -9361,9 +9367,9 @@
       <c r="D156" t="s">
         <v>486</v>
       </c>
-      <c r="J156" s="1"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>155</v>
       </c>
@@ -9377,7 +9383,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>156</v>
       </c>
@@ -9391,7 +9397,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>157</v>
       </c>
@@ -9405,7 +9411,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>158</v>
       </c>
@@ -9418,9 +9424,9 @@
       <c r="D160" t="s">
         <v>490</v>
       </c>
-      <c r="J160" s="1"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -9433,9 +9439,9 @@
       <c r="D161" t="s">
         <v>491</v>
       </c>
-      <c r="J161" s="1"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I161" s="1"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -9449,7 +9455,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -9462,9 +9468,9 @@
       <c r="D163" t="s">
         <v>493</v>
       </c>
-      <c r="J163" s="1"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I163" s="1"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -9478,7 +9484,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -9492,7 +9498,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -9505,9 +9511,9 @@
       <c r="D166" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="J166" s="1"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I166" s="1"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -9521,7 +9527,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -9535,7 +9541,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -9549,7 +9555,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -9563,7 +9569,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -9576,9 +9582,9 @@
       <c r="D171" t="s">
         <v>500</v>
       </c>
-      <c r="J171" s="1"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -9591,9 +9597,9 @@
       <c r="D172" t="s">
         <v>501</v>
       </c>
-      <c r="J172" s="1"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I172" s="1"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -9607,7 +9613,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -9621,7 +9627,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -9635,7 +9641,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -9649,7 +9655,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -9663,7 +9669,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -9677,7 +9683,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -9691,7 +9697,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -9705,7 +9711,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -9718,9 +9724,9 @@
       <c r="D181" t="s">
         <v>423</v>
       </c>
-      <c r="J181" s="1"/>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I181" s="1"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -9733,9 +9739,9 @@
       <c r="D182" t="s">
         <v>507</v>
       </c>
-      <c r="J182" s="1"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I182" s="1"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -9749,7 +9755,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -9763,7 +9769,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -9777,7 +9783,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -9791,7 +9797,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -9805,7 +9811,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -9819,7 +9825,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -9833,7 +9839,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>189</v>
       </c>
@@ -9846,9 +9852,9 @@
       <c r="D190" t="s">
         <v>512</v>
       </c>
-      <c r="J190" s="1"/>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I190" s="1"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -9862,7 +9868,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -9876,7 +9882,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -9890,7 +9896,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -9904,7 +9910,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -9918,7 +9924,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>195</v>
       </c>
@@ -9932,7 +9938,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -9946,7 +9952,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>197</v>
       </c>
@@ -9959,9 +9965,9 @@
       <c r="D198" t="s">
         <v>518</v>
       </c>
-      <c r="J198" s="1"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I198" s="1"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -9974,9 +9980,9 @@
       <c r="D199" t="s">
         <v>458</v>
       </c>
-      <c r="J199" s="1"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I199" s="1"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>199</v>
       </c>
@@ -9990,7 +9996,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -10003,9 +10009,9 @@
       <c r="D201" t="s">
         <v>520</v>
       </c>
-      <c r="J201" s="1"/>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I201" s="1"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>201</v>
       </c>
@@ -10019,7 +10025,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -10032,9 +10038,9 @@
       <c r="D203" t="s">
         <v>462</v>
       </c>
-      <c r="J203" s="1"/>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I203" s="1"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>203</v>
       </c>
@@ -10048,7 +10054,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>204</v>
       </c>
@@ -10062,7 +10068,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>205</v>
       </c>
@@ -10076,7 +10082,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>206</v>
       </c>
@@ -10090,7 +10096,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>207</v>
       </c>
@@ -10104,7 +10110,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>208</v>
       </c>
@@ -10118,7 +10124,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>209</v>
       </c>
@@ -10132,7 +10138,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>210</v>
       </c>
@@ -10146,7 +10152,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>211</v>
       </c>
@@ -10156,9 +10162,9 @@
       <c r="C212" t="s">
         <v>1129</v>
       </c>
-      <c r="J212" s="1"/>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I212" s="1"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -10169,7 +10175,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>213</v>
       </c>
@@ -10180,7 +10186,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -10190,9 +10196,9 @@
       <c r="C215" t="s">
         <v>1186</v>
       </c>
-      <c r="J215" s="1"/>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I215" s="1"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>215</v>
       </c>
@@ -10203,7 +10209,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>216</v>
       </c>
@@ -10214,7 +10220,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>217</v>
       </c>
@@ -10224,9 +10230,9 @@
       <c r="C218" t="s">
         <v>1132</v>
       </c>
-      <c r="J218" s="1"/>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I218" s="1"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -10237,7 +10243,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>219</v>
       </c>
@@ -10248,7 +10254,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>220</v>
       </c>
@@ -10258,9 +10264,9 @@
       <c r="C221" t="s">
         <v>1198</v>
       </c>
-      <c r="J221" s="1"/>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I221" s="1"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>221</v>
       </c>
@@ -10271,7 +10277,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -10282,7 +10288,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -10292,9 +10298,9 @@
       <c r="C224" t="s">
         <v>1113</v>
       </c>
-      <c r="J224" s="1"/>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I224" s="1"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>1534</v>
       </c>
@@ -10302,7 +10308,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>227</v>
       </c>
@@ -10313,7 +10319,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>228</v>
       </c>
@@ -10323,9 +10329,9 @@
       <c r="C227" t="s">
         <v>1113</v>
       </c>
-      <c r="J227" s="1"/>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I227" s="1"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>229</v>
       </c>
@@ -10336,7 +10342,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>230</v>
       </c>
@@ -10346,9 +10352,9 @@
       <c r="C229" t="s">
         <v>1116</v>
       </c>
-      <c r="J229" s="1"/>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I229" s="1"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>231</v>
       </c>
@@ -10359,7 +10365,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>232</v>
       </c>
@@ -10369,9 +10375,9 @@
       <c r="C231" t="s">
         <v>1112</v>
       </c>
-      <c r="J231" s="1"/>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I231" s="1"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>233</v>
       </c>
@@ -10382,7 +10388,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>234</v>
       </c>
@@ -10392,9 +10398,9 @@
       <c r="C233" t="s">
         <v>1137</v>
       </c>
-      <c r="J233" s="1"/>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I233" s="1"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>235</v>
       </c>
@@ -10402,7 +10408,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>236</v>
       </c>
@@ -10412,9 +10418,9 @@
       <c r="C235" t="s">
         <v>1123</v>
       </c>
-      <c r="J235" s="1"/>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I235" s="1"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>237</v>
       </c>
@@ -10425,7 +10431,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>238</v>
       </c>
@@ -10436,7 +10442,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>239</v>
       </c>
@@ -10447,7 +10453,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>240</v>
       </c>
@@ -10457,9 +10463,9 @@
       <c r="C239" t="s">
         <v>1132</v>
       </c>
-      <c r="J239" s="1"/>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I239" s="1"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>241</v>
       </c>
@@ -10469,9 +10475,9 @@
       <c r="C240" t="s">
         <v>1215</v>
       </c>
-      <c r="J240" s="1"/>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I240" s="1"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>242</v>
       </c>
@@ -10481,9 +10487,9 @@
       <c r="C241" t="s">
         <v>1138</v>
       </c>
-      <c r="J241" s="1"/>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I241" s="1"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>244</v>
       </c>
@@ -10494,7 +10500,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>245</v>
       </c>
@@ -10504,9 +10510,9 @@
       <c r="C243" t="s">
         <v>1113</v>
       </c>
-      <c r="J243" s="1"/>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I243" s="1"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>246</v>
       </c>
@@ -10516,9 +10522,9 @@
       <c r="C244" t="s">
         <v>1199</v>
       </c>
-      <c r="J244" s="1"/>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I244" s="1"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>247</v>
       </c>
@@ -10526,7 +10532,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>248</v>
       </c>
@@ -10536,9 +10542,9 @@
       <c r="C246" t="s">
         <v>1225</v>
       </c>
-      <c r="J246" s="1"/>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I246" s="1"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>249</v>
       </c>
@@ -10549,7 +10555,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>250</v>
       </c>
@@ -10559,9 +10565,9 @@
       <c r="C248" t="s">
         <v>1279</v>
       </c>
-      <c r="J248" s="1"/>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I248" s="1"/>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>251</v>
       </c>
@@ -10572,7 +10578,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>252</v>
       </c>
@@ -10583,7 +10589,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>253</v>
       </c>
@@ -10593,9 +10599,9 @@
       <c r="C251" t="s">
         <v>1113</v>
       </c>
-      <c r="J251" s="1"/>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I251" s="1"/>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>254</v>
       </c>
@@ -10606,7 +10612,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>255</v>
       </c>
@@ -10617,7 +10623,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>256</v>
       </c>
@@ -10628,7 +10634,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>257</v>
       </c>
@@ -10639,7 +10645,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>258</v>
       </c>
@@ -10650,7 +10656,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>259</v>
       </c>
@@ -10661,7 +10667,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>260</v>
       </c>
@@ -10671,9 +10677,9 @@
       <c r="C258" t="s">
         <v>1127</v>
       </c>
-      <c r="J258" s="1"/>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I258" s="1"/>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>261</v>
       </c>
@@ -10684,7 +10690,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>262</v>
       </c>
@@ -10692,7 +10698,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>263</v>
       </c>
@@ -10703,7 +10709,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>264</v>
       </c>
@@ -10711,7 +10717,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>265</v>
       </c>
@@ -10722,7 +10728,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>266</v>
       </c>
@@ -10733,7 +10739,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>267</v>
       </c>
@@ -10743,9 +10749,9 @@
       <c r="C265" t="s">
         <v>1141</v>
       </c>
-      <c r="J265" s="1"/>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I265" s="1"/>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>268</v>
       </c>
@@ -10756,7 +10762,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>269</v>
       </c>
@@ -10767,7 +10773,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>270</v>
       </c>
@@ -10778,7 +10784,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>271</v>
       </c>
@@ -10789,7 +10795,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>272</v>
       </c>
@@ -10800,16 +10806,16 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>273</v>
       </c>
       <c r="B271" t="s">
         <v>1383</v>
       </c>
-      <c r="J271" s="1"/>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I271" s="1"/>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>274</v>
       </c>
@@ -10817,7 +10823,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>275</v>
       </c>
@@ -10825,7 +10831,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>276</v>
       </c>
@@ -10836,7 +10842,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>277</v>
       </c>
@@ -10847,7 +10853,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>278</v>
       </c>
@@ -10857,9 +10863,9 @@
       <c r="C276" t="s">
         <v>1125</v>
       </c>
-      <c r="J276" s="1"/>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I276" s="1"/>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>280</v>
       </c>
@@ -10870,7 +10876,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>281</v>
       </c>
@@ -10881,7 +10887,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>282</v>
       </c>
@@ -10892,7 +10898,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>283</v>
       </c>
@@ -10903,18 +10909,15 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>284</v>
       </c>
       <c r="B281" t="s">
         <v>211</v>
       </c>
-      <c r="F281" t="s">
-        <v>2131</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>285</v>
       </c>
@@ -10925,7 +10928,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>287</v>
       </c>
@@ -10936,7 +10939,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>289</v>
       </c>
@@ -10944,7 +10947,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>290</v>
       </c>
@@ -10955,7 +10958,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>291</v>
       </c>
@@ -10966,7 +10969,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>292</v>
       </c>
@@ -10977,7 +10980,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>293</v>
       </c>
@@ -10988,7 +10991,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>294</v>
       </c>
@@ -10999,7 +11002,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>295</v>
       </c>
@@ -11010,7 +11013,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>296</v>
       </c>
@@ -11021,7 +11024,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>297</v>
       </c>
@@ -11032,7 +11035,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>298</v>
       </c>
@@ -11042,9 +11045,9 @@
       <c r="C293" t="s">
         <v>1181</v>
       </c>
-      <c r="J293" s="1"/>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I293" s="1"/>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>299</v>
       </c>
@@ -11055,7 +11058,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>300</v>
       </c>
@@ -11066,7 +11069,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <v>301</v>
       </c>
@@ -11077,7 +11080,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>302</v>
       </c>
@@ -11087,9 +11090,9 @@
       <c r="C297" t="s">
         <v>1166</v>
       </c>
-      <c r="J297" s="1"/>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I297" s="1"/>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>303</v>
       </c>
@@ -11100,7 +11103,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>304</v>
       </c>
@@ -11110,9 +11113,9 @@
       <c r="C299" t="s">
         <v>1144</v>
       </c>
-      <c r="J299" s="1"/>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I299" s="1"/>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <v>305</v>
       </c>
@@ -11122,18 +11125,18 @@
       <c r="C300" t="s">
         <v>1136</v>
       </c>
-      <c r="J300" s="1"/>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I300" s="1"/>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <v>306</v>
       </c>
       <c r="B301" t="s">
         <v>1096</v>
       </c>
-      <c r="J301" s="1"/>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I301" s="1"/>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>308</v>
       </c>
@@ -11143,9 +11146,9 @@
       <c r="C302" t="s">
         <v>1197</v>
       </c>
-      <c r="J302" s="1"/>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I302" s="1"/>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>309</v>
       </c>
@@ -11156,7 +11159,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <v>310</v>
       </c>
@@ -11167,7 +11170,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <v>311</v>
       </c>
@@ -11178,16 +11181,16 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <v>312</v>
       </c>
       <c r="B306" t="s">
         <v>1377</v>
       </c>
-      <c r="J306" s="1"/>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I306" s="1"/>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <v>314</v>
       </c>
@@ -11198,7 +11201,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <v>315</v>
       </c>
@@ -11206,7 +11209,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>318</v>
       </c>
@@ -11217,7 +11220,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>319</v>
       </c>
@@ -11225,7 +11228,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <v>320</v>
       </c>
@@ -11236,7 +11239,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <v>321</v>
       </c>
@@ -11244,7 +11247,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <v>322</v>
       </c>
@@ -11255,7 +11258,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <v>323</v>
       </c>
@@ -11266,7 +11269,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <v>324</v>
       </c>
@@ -11277,7 +11280,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <v>325</v>
       </c>
@@ -11288,7 +11291,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <v>326</v>
       </c>
@@ -11299,7 +11302,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <v>327</v>
       </c>
@@ -11310,7 +11313,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>328</v>
       </c>
@@ -11321,7 +11324,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <v>329</v>
       </c>
@@ -11332,7 +11335,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <v>330</v>
       </c>
@@ -11343,7 +11346,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <v>331</v>
       </c>
@@ -11354,7 +11357,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <v>332</v>
       </c>
@@ -11365,7 +11368,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <v>334</v>
       </c>
@@ -11376,7 +11379,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <v>335</v>
       </c>
@@ -11387,7 +11390,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <v>336</v>
       </c>
@@ -11395,7 +11398,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>337</v>
       </c>
@@ -11406,7 +11409,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <v>338</v>
       </c>
@@ -11417,7 +11420,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>339</v>
       </c>
@@ -11428,7 +11431,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <v>340</v>
       </c>
@@ -11439,7 +11442,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <v>341</v>
       </c>
@@ -11449,9 +11452,9 @@
       <c r="C331" t="s">
         <v>1783</v>
       </c>
-      <c r="J331" s="1"/>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I331" s="1"/>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <v>343</v>
       </c>
@@ -11462,7 +11465,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <v>344</v>
       </c>
@@ -11472,9 +11475,9 @@
       <c r="C333" t="s">
         <v>1178</v>
       </c>
-      <c r="J333" s="1"/>
-    </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I333" s="1"/>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <v>345</v>
       </c>
@@ -11485,7 +11488,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <v>346</v>
       </c>
@@ -11496,7 +11499,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <v>348</v>
       </c>
@@ -11507,7 +11510,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <v>349</v>
       </c>
@@ -11518,7 +11521,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <v>350</v>
       </c>
@@ -11529,16 +11532,16 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <v>351</v>
       </c>
       <c r="B339" t="s">
         <v>1781</v>
       </c>
-      <c r="J339" s="1"/>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I339" s="1"/>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <v>352</v>
       </c>
@@ -11549,7 +11552,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <v>353</v>
       </c>
@@ -11560,7 +11563,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <v>354</v>
       </c>
@@ -11571,7 +11574,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <v>355</v>
       </c>
@@ -11582,7 +11585,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <v>356</v>
       </c>
@@ -11593,7 +11596,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <v>357</v>
       </c>
@@ -11604,7 +11607,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <v>358</v>
       </c>
@@ -11615,7 +11618,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <v>359</v>
       </c>
@@ -11626,7 +11629,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <v>360</v>
       </c>
@@ -11637,7 +11640,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <v>361</v>
       </c>
@@ -11648,7 +11651,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <v>362</v>
       </c>
@@ -11659,7 +11662,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <v>363</v>
       </c>
@@ -11670,7 +11673,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <v>364</v>
       </c>
@@ -11681,7 +11684,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <v>365</v>
       </c>
@@ -11692,7 +11695,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <v>366</v>
       </c>
@@ -11700,7 +11703,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <v>367</v>
       </c>
@@ -11711,7 +11714,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <v>368</v>
       </c>
@@ -11722,7 +11725,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <v>369</v>
       </c>
@@ -11733,7 +11736,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <v>370</v>
       </c>
@@ -11741,7 +11744,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <v>373</v>
       </c>
@@ -11752,7 +11755,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <v>374</v>
       </c>
@@ -11762,18 +11765,18 @@
       <c r="C360" t="s">
         <v>1167</v>
       </c>
-      <c r="J360" s="1"/>
-    </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I360" s="1"/>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <v>375</v>
       </c>
       <c r="B361" t="s">
         <v>1781</v>
       </c>
-      <c r="J361" s="1"/>
-    </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I361" s="1"/>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <v>377</v>
       </c>
@@ -11784,7 +11787,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <v>378</v>
       </c>
@@ -11795,7 +11798,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <v>379</v>
       </c>
@@ -11806,7 +11809,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <v>380</v>
       </c>
@@ -11817,7 +11820,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <v>381</v>
       </c>
@@ -11828,7 +11831,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <v>382</v>
       </c>
@@ -11839,7 +11842,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <v>384</v>
       </c>
@@ -12536,7 +12539,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" s="4">
         <v>455</v>
       </c>
@@ -12547,7 +12550,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" s="4">
         <v>456</v>
       </c>
@@ -12558,7 +12561,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" s="4">
         <v>457</v>
       </c>
@@ -12569,7 +12572,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" s="4">
         <v>458</v>
       </c>
@@ -12580,7 +12583,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" s="4">
         <v>459</v>
       </c>
@@ -12591,7 +12594,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" s="4">
         <v>460</v>
       </c>
@@ -12602,7 +12605,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" s="4">
         <v>461</v>
       </c>
@@ -12610,7 +12613,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" s="4">
         <v>462</v>
       </c>
@@ -12621,7 +12624,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" s="4">
         <v>463</v>
       </c>
@@ -12632,7 +12635,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" s="4">
         <v>464</v>
       </c>
@@ -12643,7 +12646,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" s="4">
         <v>465</v>
       </c>
@@ -12654,7 +12657,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" s="4">
         <v>466</v>
       </c>
@@ -12664,9 +12667,9 @@
       <c r="C444" t="s">
         <v>1196</v>
       </c>
-      <c r="J444" s="1"/>
-    </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I444" s="1"/>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" s="4">
         <v>467</v>
       </c>
@@ -12677,7 +12680,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" s="4">
         <v>468</v>
       </c>
@@ -12688,7 +12691,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" s="4">
         <v>469</v>
       </c>
@@ -12699,7 +12702,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" s="4">
         <v>470</v>
       </c>
@@ -12710,7 +12713,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" s="4">
         <v>471</v>
       </c>
@@ -12720,9 +12723,9 @@
       <c r="C449" t="s">
         <v>1119</v>
       </c>
-      <c r="J449" s="1"/>
-    </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I449" s="1"/>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" s="4">
         <v>472</v>
       </c>
@@ -12733,7 +12736,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" s="4">
         <v>473</v>
       </c>
@@ -12744,7 +12747,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" s="4">
         <v>474</v>
       </c>
@@ -12752,7 +12755,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" s="4">
         <v>475</v>
       </c>
@@ -12762,9 +12765,9 @@
       <c r="C453" t="s">
         <v>1123</v>
       </c>
-      <c r="J453" s="1"/>
-    </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I453" s="1"/>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" s="4">
         <v>476</v>
       </c>
@@ -12774,9 +12777,9 @@
       <c r="C454" t="s">
         <v>1165</v>
       </c>
-      <c r="J454" s="1"/>
-    </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I454" s="1"/>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" s="4">
         <v>477</v>
       </c>
@@ -12787,7 +12790,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" s="4">
         <v>478</v>
       </c>
@@ -12798,7 +12801,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" s="4">
         <v>479</v>
       </c>
@@ -12806,7 +12809,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" s="4">
         <v>480</v>
       </c>
@@ -12816,9 +12819,9 @@
       <c r="C458" t="s">
         <v>1154</v>
       </c>
-      <c r="J458" s="1"/>
-    </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I458" s="1"/>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" s="4">
         <v>481</v>
       </c>
@@ -12829,7 +12832,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" s="4">
         <v>482</v>
       </c>
@@ -12839,9 +12842,9 @@
       <c r="C460" t="s">
         <v>1151</v>
       </c>
-      <c r="J460" s="1"/>
-    </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I460" s="1"/>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" s="4">
         <v>483</v>
       </c>
@@ -12852,7 +12855,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" s="4">
         <v>484</v>
       </c>
@@ -12863,7 +12866,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" s="4">
         <v>485</v>
       </c>
@@ -12873,9 +12876,9 @@
       <c r="C463" t="s">
         <v>1138</v>
       </c>
-      <c r="J463" s="1"/>
-    </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I463" s="1"/>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" s="4">
         <v>486</v>
       </c>
@@ -13941,129 +13944,129 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="11" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B552" t="s">
         <v>229</v>
       </c>
       <c r="C552" s="18" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="11" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B553" t="s">
         <v>229</v>
       </c>
       <c r="C553" s="18" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="D553" s="2"/>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="11" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B554" t="s">
         <v>229</v>
       </c>
       <c r="C554" s="18" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="11" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B555" t="s">
         <v>229</v>
       </c>
       <c r="C555" s="18" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="11" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B556" t="s">
         <v>229</v>
       </c>
       <c r="C556" s="18" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="11" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="B557" t="s">
         <v>229</v>
       </c>
       <c r="C557" s="18" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="11" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B558" t="s">
         <v>229</v>
       </c>
       <c r="C558" s="18" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="11" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="B559" t="s">
         <v>229</v>
       </c>
       <c r="C559" s="18" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="11" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="B560" t="s">
         <v>229</v>
       </c>
       <c r="C560" s="18" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="11" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="B561" t="s">
         <v>229</v>
       </c>
       <c r="C561" s="18" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="11" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="B562" t="s">
         <v>229</v>
       </c>
       <c r="C562" s="18" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="11" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="B563" t="s">
         <v>1430</v>
@@ -14074,7 +14077,7 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="11" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="B564" t="s">
         <v>1430</v>
@@ -14085,7 +14088,7 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="11" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="B565" t="s">
         <v>1430</v>
@@ -14096,7 +14099,7 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="11" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="B566" t="s">
         <v>1430</v>
@@ -14107,7 +14110,7 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="11" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="B567" t="s">
         <v>1430</v>
@@ -14118,7 +14121,7 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="11" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="B568" t="s">
         <v>1430</v>
@@ -14129,7 +14132,7 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="11" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B569" t="s">
         <v>1430</v>
@@ -14140,7 +14143,7 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="11" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="B570" t="s">
         <v>1430</v>
@@ -14151,7 +14154,7 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="11" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B571" t="s">
         <v>1430</v>
@@ -14162,7 +14165,7 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="11" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="B572" t="s">
         <v>1430</v>
@@ -14173,7 +14176,7 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="11" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B573" t="s">
         <v>1430</v>
@@ -14184,7 +14187,7 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="11" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B574" t="s">
         <v>1430</v>
@@ -14195,7 +14198,7 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="11" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B575" t="s">
         <v>1430</v>
@@ -14206,7 +14209,7 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="11" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="B576" t="s">
         <v>1430</v>
@@ -14217,7 +14220,7 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="11" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B577" t="s">
         <v>1430</v>
@@ -14228,7 +14231,7 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="11" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B578" t="s">
         <v>1430</v>
@@ -14239,7 +14242,7 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="11" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B579" t="s">
         <v>1430</v>
@@ -14250,7 +14253,7 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="11" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B580" t="s">
         <v>1430</v>
@@ -14299,8 +14302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H564"/>
   <sheetViews>
-    <sheetView topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="A277" sqref="A277"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14312,7 +14315,7 @@
     <col min="5" max="5" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>219</v>
       </c>
@@ -14334,8 +14337,11 @@
       <c r="G1" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>220</v>
       </c>
@@ -14357,8 +14363,11 @@
       <c r="G2" t="s">
         <v>1947</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1804</v>
       </c>
@@ -14378,7 +14387,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1858</v>
       </c>
@@ -14398,7 +14407,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1865</v>
       </c>
@@ -14418,7 +14427,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1857</v>
       </c>
@@ -14438,7 +14447,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1856</v>
       </c>
@@ -14458,7 +14467,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1859</v>
       </c>
@@ -14478,7 +14487,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1866</v>
       </c>
@@ -14498,7 +14507,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1860</v>
       </c>
@@ -14518,7 +14527,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>194</v>
       </c>
@@ -14538,7 +14547,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1863</v>
       </c>
@@ -14558,7 +14567,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1864</v>
       </c>
@@ -14578,7 +14587,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1868</v>
       </c>
@@ -14598,7 +14607,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>177</v>
       </c>
@@ -14618,7 +14627,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1862</v>
       </c>
@@ -14684,7 +14693,7 @@
         <v>230</v>
       </c>
       <c r="C19" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="D19" s="3">
         <v>518</v>
@@ -16420,7 +16429,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -16437,7 +16446,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>213</v>
       </c>
@@ -16454,7 +16463,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -16471,7 +16480,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>199</v>
       </c>
@@ -16488,7 +16497,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>212</v>
       </c>
@@ -16505,7 +16514,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>178</v>
       </c>
@@ -16522,7 +16531,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>111</v>
       </c>
@@ -16539,7 +16548,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>379</v>
       </c>
@@ -16553,7 +16562,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>358</v>
       </c>
@@ -16567,7 +16576,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>356</v>
       </c>
@@ -16581,7 +16590,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>350</v>
       </c>
@@ -16595,7 +16604,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>401</v>
       </c>
@@ -16609,7 +16618,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>211</v>
       </c>
@@ -16622,14 +16631,14 @@
       <c r="E157" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F157" t="s">
-        <v>2131</v>
-      </c>
       <c r="G157" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -16646,7 +16655,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>109</v>
       </c>
@@ -16663,7 +16672,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>416</v>
       </c>
@@ -18172,7 +18181,7 @@
         <v>1414</v>
       </c>
       <c r="E255" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="G255" t="s">
         <v>1952</v>
@@ -18186,7 +18195,7 @@
         <v>1418</v>
       </c>
       <c r="E256" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="G256" t="s">
         <v>1952</v>
@@ -18200,7 +18209,7 @@
         <v>1415</v>
       </c>
       <c r="E257" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="G257" t="s">
         <v>1952</v>
@@ -18214,7 +18223,7 @@
         <v>1401</v>
       </c>
       <c r="E258" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="G258" t="s">
         <v>1952</v>
@@ -18228,7 +18237,7 @@
         <v>1397</v>
       </c>
       <c r="E259" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="G259" t="s">
         <v>1952</v>
@@ -18242,7 +18251,7 @@
         <v>1402</v>
       </c>
       <c r="E260" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="G260" t="s">
         <v>1952</v>
@@ -18256,7 +18265,7 @@
         <v>1403</v>
       </c>
       <c r="E261" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="G261" t="s">
         <v>1952</v>
@@ -18270,7 +18279,7 @@
         <v>1398</v>
       </c>
       <c r="E262" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="G262" t="s">
         <v>1952</v>
@@ -18284,7 +18293,7 @@
         <v>1420</v>
       </c>
       <c r="E263" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="G263" t="s">
         <v>1952</v>
@@ -18299,7 +18308,7 @@
       </c>
       <c r="D264"/>
       <c r="E264" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="G264" t="s">
         <v>1952</v>
@@ -18314,7 +18323,7 @@
       </c>
       <c r="D265"/>
       <c r="E265" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="G265" t="s">
         <v>1952</v>
@@ -18329,7 +18338,7 @@
       </c>
       <c r="D266"/>
       <c r="E266" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="G266" t="s">
         <v>1952</v>
@@ -18344,7 +18353,7 @@
       </c>
       <c r="D267"/>
       <c r="E267" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="G267" t="s">
         <v>1952</v>
@@ -18359,7 +18368,7 @@
       </c>
       <c r="D268"/>
       <c r="E268" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="G268" t="s">
         <v>1952</v>
@@ -18374,7 +18383,7 @@
       </c>
       <c r="D269"/>
       <c r="E269" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="G269" t="s">
         <v>1952</v>
@@ -18389,7 +18398,7 @@
       </c>
       <c r="D270"/>
       <c r="E270" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="G270" t="s">
         <v>1952</v>
@@ -18404,7 +18413,7 @@
       </c>
       <c r="D271"/>
       <c r="E271" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="G271" t="s">
         <v>1952</v>
@@ -18419,13 +18428,13 @@
       </c>
       <c r="D272"/>
       <c r="E272" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="G272" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1470</v>
       </c>
@@ -18434,13 +18443,13 @@
       </c>
       <c r="D273"/>
       <c r="E273" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="G273" t="s">
         <v>1952</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1461</v>
       </c>
@@ -18449,13 +18458,13 @@
       </c>
       <c r="D274"/>
       <c r="E274" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="G274" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1429</v>
       </c>
@@ -18464,13 +18473,13 @@
       </c>
       <c r="D275"/>
       <c r="E275" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="G275" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1471</v>
       </c>
@@ -18479,13 +18488,13 @@
       </c>
       <c r="D276"/>
       <c r="E276" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="G276" t="s">
         <v>1952</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1430</v>
       </c>
@@ -18494,16 +18503,16 @@
       </c>
       <c r="D277"/>
       <c r="E277" s="2" t="s">
-        <v>2158</v>
-      </c>
-      <c r="F277" t="s">
-        <v>2131</v>
+        <v>2157</v>
       </c>
       <c r="G277" t="s">
         <v>1953</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H277" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1431</v>
       </c>
@@ -18511,13 +18520,13 @@
         <v>1445</v>
       </c>
       <c r="E278" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="G278" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1432</v>
       </c>
@@ -18525,13 +18534,13 @@
         <v>1446</v>
       </c>
       <c r="E279" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="G279" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1433</v>
       </c>
@@ -18539,13 +18548,13 @@
         <v>1447</v>
       </c>
       <c r="E280" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="G280" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1434</v>
       </c>
@@ -18553,13 +18562,13 @@
         <v>1448</v>
       </c>
       <c r="E281" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="G281" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1435</v>
       </c>
@@ -18567,13 +18576,13 @@
         <v>1449</v>
       </c>
       <c r="E282" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="G282" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1437</v>
       </c>
@@ -18581,13 +18590,13 @@
         <v>1451</v>
       </c>
       <c r="E283" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="G283" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1438</v>
       </c>
@@ -18595,13 +18604,13 @@
         <v>1452</v>
       </c>
       <c r="E284" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="G284" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1436</v>
       </c>
@@ -18609,13 +18618,13 @@
         <v>1450</v>
       </c>
       <c r="E285" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="G285" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1428</v>
       </c>
@@ -18623,13 +18632,13 @@
         <v>1427</v>
       </c>
       <c r="E286" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="G286" t="s">
         <v>1952</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1459</v>
       </c>
@@ -18637,13 +18646,13 @@
         <v>1463</v>
       </c>
       <c r="E287" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G287" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1466</v>
       </c>
@@ -18651,7 +18660,7 @@
         <v>1421</v>
       </c>
       <c r="E288" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="G288" t="s">
         <v>1952</v>
@@ -18665,7 +18674,7 @@
         <v>1453</v>
       </c>
       <c r="E289" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="G289" t="s">
         <v>1953</v>
@@ -18679,7 +18688,7 @@
         <v>1454</v>
       </c>
       <c r="E290" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="G290" t="s">
         <v>1953</v>
@@ -18693,7 +18702,7 @@
         <v>1455</v>
       </c>
       <c r="E291" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="G291" t="s">
         <v>1953</v>
@@ -18707,7 +18716,7 @@
         <v>1456</v>
       </c>
       <c r="E292" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="G292" t="s">
         <v>1953</v>
@@ -20323,7 +20332,7 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B430" t="s">
         <v>1128</v>
@@ -20741,7 +20750,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>2100</v>
       </c>
@@ -20756,7 +20765,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>2102</v>
       </c>
@@ -20771,7 +20780,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>2104</v>
       </c>
@@ -20786,7 +20795,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>2106</v>
       </c>
@@ -20801,7 +20810,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>2108</v>
       </c>
@@ -20816,7 +20825,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>2110</v>
       </c>
@@ -20831,7 +20840,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>2112</v>
       </c>
@@ -20846,7 +20855,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>2130</v>
       </c>
@@ -20855,55 +20864,55 @@
       </c>
       <c r="D472"/>
       <c r="E472" t="s">
-        <v>2132</v>
-      </c>
-      <c r="F472" t="s">
         <v>2131</v>
       </c>
       <c r="G472" t="s">
         <v>1950</v>
       </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H472" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B473" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D473"/>
+      <c r="H473" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
         <v>2133</v>
       </c>
-      <c r="B473" t="s">
+      <c r="B474" t="s">
         <v>2133</v>
       </c>
-      <c r="D473"/>
-      <c r="F473" t="s">
-        <v>2131</v>
-      </c>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
-        <v>2134</v>
-      </c>
-      <c r="B474" t="s">
-        <v>2134</v>
-      </c>
       <c r="D474"/>
-      <c r="F474" t="s">
-        <v>2131</v>
-      </c>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H474" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D475"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D476"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D477"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D478"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D479"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D480"/>
     </row>
     <row r="481" spans="4:4" x14ac:dyDescent="0.25">
